--- a/public/data/soil/soil_table_ethiopia.xlsx
+++ b/public/data/soil/soil_table_ethiopia.xlsx
@@ -93,7 +93,7 @@
     <t xml:space="preserve">source_cropland</t>
   </si>
   <si>
-    <t xml:space="preserve">cropland data from Geosurvey: https://geosurvey.qed.ai/about/</t>
+    <t xml:space="preserve">cropland data from MapSPAM: https://mapspam.info/</t>
   </si>
   <si>
     <t xml:space="preserve">source_ruralpop</t>
@@ -878,10 +878,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>57.9</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>28249</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>41.256</v>
+        <v>20.649</v>
       </c>
     </row>
     <row r="3">
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>209743.1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -928,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>221.19</v>
+        <v>442.074</v>
       </c>
     </row>
     <row r="4">
@@ -948,10 +948,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>677.5</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>81059.3</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -960,10 +960,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.577</v>
+        <v>2.716</v>
       </c>
       <c r="K4" t="n">
-        <v>146.959</v>
+        <v>294.835</v>
       </c>
     </row>
     <row r="5">
@@ -983,10 +983,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>43.2</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>326614.6</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -995,10 +995,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>209.367</v>
+        <v>230.636</v>
       </c>
     </row>
     <row r="6">
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>165757.9</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>206.995</v>
+        <v>266.7</v>
       </c>
     </row>
     <row r="7">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>135112.5</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>180.918</v>
+        <v>210.394</v>
       </c>
     </row>
     <row r="8">
@@ -1082,28 +1082,28 @@
         <v>38</v>
       </c>
       <c r="D8" t="n">
-        <v>41380.4</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>38452.5</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>124681.8</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>262629.7</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>104.875</v>
+        <v>43.388</v>
       </c>
       <c r="I8" t="n">
-        <v>82.213</v>
+        <v>32.189</v>
       </c>
       <c r="J8" t="n">
-        <v>295.099</v>
+        <v>324.321</v>
       </c>
       <c r="K8" t="n">
-        <v>427.162</v>
+        <v>467.244</v>
       </c>
     </row>
     <row r="9">
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>16425.7</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>37.432</v>
+        <v>17.878</v>
       </c>
     </row>
     <row r="10">
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>912</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>3768</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>829529.9</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1205,10 +1205,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>18.955</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1922.008</v>
+        <v>1931.075</v>
       </c>
     </row>
     <row r="12">
@@ -1228,10 +1228,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>894.2</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>954426.6</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1240,10 +1240,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>4.535</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>2200.562</v>
+        <v>2177.745</v>
       </c>
     </row>
     <row r="13">
@@ -1257,28 +1257,28 @@
         <v>43</v>
       </c>
       <c r="D13" t="n">
-        <v>7102</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>20350.5</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>67226.1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>777337.8</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>16.554</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>38.288</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>163.352</v>
+        <v>64.459</v>
       </c>
       <c r="K13" t="n">
-        <v>1605.324</v>
+        <v>1765.709</v>
       </c>
     </row>
     <row r="14">
@@ -1292,28 +1292,28 @@
         <v>44</v>
       </c>
       <c r="D14" t="n">
-        <v>6768.7</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>10079.9</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>26467.3</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>798761.2</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>43.565</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>31.57</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>80.567</v>
+        <v>26.325</v>
       </c>
       <c r="K14" t="n">
-        <v>1977.264</v>
+        <v>2102.906</v>
       </c>
     </row>
     <row r="15">
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>363.8</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>891434.6</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.276</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1734.728</v>
+        <v>1698.011</v>
       </c>
     </row>
     <row r="16">
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>173197.7</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1383,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>428.192</v>
+        <v>430.956</v>
       </c>
     </row>
     <row r="17">
@@ -1403,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2213</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1557741.4</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1415,10 +1415,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>3.738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>2572.331</v>
+        <v>2579.18</v>
       </c>
     </row>
     <row r="18">
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>645333.8</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1453,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>1438.861</v>
+        <v>1463.646</v>
       </c>
     </row>
     <row r="19">
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>342636</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>442.2</v>
+        <v>468.78</v>
       </c>
     </row>
     <row r="20">
@@ -1502,28 +1502,28 @@
         <v>51</v>
       </c>
       <c r="D20" t="n">
-        <v>838.4</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>12056.9</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>938.1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>358769.6</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2.157</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>26.535</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2.404</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>371.731</v>
+        <v>419.274</v>
       </c>
     </row>
     <row r="21">
@@ -1537,28 +1537,28 @@
         <v>52</v>
       </c>
       <c r="D21" t="n">
-        <v>3710.1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>17040.8</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>3178.2</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>185061.6</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>2.665</v>
+        <v>11.91</v>
       </c>
       <c r="I21" t="n">
-        <v>15.875</v>
+        <v>6.261</v>
       </c>
       <c r="J21" t="n">
-        <v>3.76</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>91.728</v>
+        <v>121.525</v>
       </c>
     </row>
     <row r="22">
@@ -1572,28 +1572,28 @@
         <v>53</v>
       </c>
       <c r="D22" t="n">
-        <v>48698.2</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>64539.5</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>12589.4</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>407246</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>67.789</v>
+        <v>70.449</v>
       </c>
       <c r="I22" t="n">
-        <v>81.099</v>
+        <v>112.289</v>
       </c>
       <c r="J22" t="n">
-        <v>17.348</v>
+        <v>3.294</v>
       </c>
       <c r="K22" t="n">
-        <v>198.329</v>
+        <v>219.814</v>
       </c>
     </row>
     <row r="23">
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>39233</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>129.545</v>
+        <v>161.661</v>
       </c>
     </row>
     <row r="24">
@@ -1642,28 +1642,28 @@
         <v>56</v>
       </c>
       <c r="D24" t="n">
-        <v>3508.3</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>8870.8</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>286518.1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.903</v>
+        <v>2.6</v>
       </c>
       <c r="I24" t="n">
-        <v>0.034</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1.007</v>
+        <v>2.984</v>
       </c>
       <c r="K24" t="n">
-        <v>115.904</v>
+        <v>154.078</v>
       </c>
     </row>
     <row r="25">
@@ -1677,28 +1677,28 @@
         <v>57</v>
       </c>
       <c r="D25" t="n">
-        <v>3070.1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>494.8</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1958.8</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>15360.6</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>8.416</v>
+        <v>17.829</v>
       </c>
       <c r="I25" t="n">
-        <v>1.098</v>
+        <v>1.49</v>
       </c>
       <c r="J25" t="n">
-        <v>3.673</v>
+        <v>2.297</v>
       </c>
       <c r="K25" t="n">
-        <v>48.237</v>
+        <v>70.45</v>
       </c>
     </row>
     <row r="26">
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>83947.1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>174.472</v>
+        <v>175.442</v>
       </c>
     </row>
     <row r="27">
@@ -1756,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>28159.4</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>96.24</v>
+        <v>134.443</v>
       </c>
     </row>
     <row r="28">
@@ -1782,28 +1782,28 @@
         <v>61</v>
       </c>
       <c r="D28" t="n">
-        <v>17.9</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>177.1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>25143.4</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1060330.8</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.267</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.274</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>75.566</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>2733.325</v>
+        <v>2805.029</v>
       </c>
     </row>
     <row r="29">
@@ -1817,28 +1817,28 @@
         <v>62</v>
       </c>
       <c r="D29" t="n">
-        <v>1934.2</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>2485.2</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>57384.7</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1234138.1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>4.744</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>4.919</v>
+        <v>3.086</v>
       </c>
       <c r="J29" t="n">
-        <v>86.556</v>
+        <v>102.082</v>
       </c>
       <c r="K29" t="n">
-        <v>1416.318</v>
+        <v>1531.799</v>
       </c>
     </row>
     <row r="30">
@@ -1852,28 +1852,28 @@
         <v>63</v>
       </c>
       <c r="D30" t="n">
-        <v>2881.6</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>27935.2</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1589.9</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1018268.6</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>11.265</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>72.015</v>
+        <v>55.343</v>
       </c>
       <c r="J30" t="n">
-        <v>9.559</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>1024.906</v>
+        <v>1035.773</v>
       </c>
     </row>
     <row r="31">
@@ -1887,28 +1887,28 @@
         <v>64</v>
       </c>
       <c r="D31" t="n">
-        <v>355.4</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>548</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>19294.5</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>453537.7</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.764</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.493</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>41.32</v>
+        <v>18.227</v>
       </c>
       <c r="K31" t="n">
-        <v>1012.016</v>
+        <v>1092.662</v>
       </c>
     </row>
     <row r="32">
@@ -1922,28 +1922,28 @@
         <v>65</v>
       </c>
       <c r="D32" t="n">
-        <v>12995.1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>17373.8</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>99140.8</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>451162.2</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>49.944</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>62.956</v>
+        <v>72.297</v>
       </c>
       <c r="J32" t="n">
-        <v>339.739</v>
+        <v>421.622</v>
       </c>
       <c r="K32" t="n">
-        <v>1129.134</v>
+        <v>1174.531</v>
       </c>
     </row>
     <row r="33">
@@ -1957,28 +1957,28 @@
         <v>66</v>
       </c>
       <c r="D33" t="n">
-        <v>32356.2</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>44730.7</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158450.2</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>175110.6</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>59.987</v>
+        <v>26.431</v>
       </c>
       <c r="I33" t="n">
-        <v>43.816</v>
+        <v>35.501</v>
       </c>
       <c r="J33" t="n">
-        <v>284.107</v>
+        <v>342.989</v>
       </c>
       <c r="K33" t="n">
-        <v>249.276</v>
+        <v>248.476</v>
       </c>
     </row>
     <row r="34">
@@ -1992,28 +1992,28 @@
         <v>67</v>
       </c>
       <c r="D34" t="n">
-        <v>460968.9</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>37981.9</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>115709</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>93235.3</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>886.402</v>
+        <v>1021.42</v>
       </c>
       <c r="I34" t="n">
-        <v>87.054</v>
+        <v>46.764</v>
       </c>
       <c r="J34" t="n">
-        <v>238.985</v>
+        <v>174.931</v>
       </c>
       <c r="K34" t="n">
-        <v>184.845</v>
+        <v>195.384</v>
       </c>
     </row>
     <row r="35">
@@ -2027,28 +2027,28 @@
         <v>68</v>
       </c>
       <c r="D35" t="n">
-        <v>610491.5</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>6699.1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>306223.9</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>142639.7</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1358.017</v>
+        <v>1459.753</v>
       </c>
       <c r="I35" t="n">
-        <v>23.034</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>834.683</v>
+        <v>837.548</v>
       </c>
       <c r="K35" t="n">
-        <v>389.81</v>
+        <v>305.411</v>
       </c>
     </row>
     <row r="36">
@@ -2062,28 +2062,28 @@
         <v>69</v>
       </c>
       <c r="D36" t="n">
-        <v>43408.6</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>4222.2</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>69985.7</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>246498.7</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>118.862</v>
+        <v>81.372</v>
       </c>
       <c r="I36" t="n">
-        <v>9.038</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>214.37</v>
+        <v>256.4</v>
       </c>
       <c r="K36" t="n">
-        <v>544.639</v>
+        <v>582.731</v>
       </c>
     </row>
     <row r="37">
@@ -2097,28 +2097,28 @@
         <v>70</v>
       </c>
       <c r="D37" t="n">
-        <v>1964.8</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1033.6</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>48671.8</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>614044.4</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>2.945</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.183</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>110.364</v>
+        <v>81.532</v>
       </c>
       <c r="K37" t="n">
-        <v>1851.473</v>
+        <v>1961.367</v>
       </c>
     </row>
     <row r="38">
@@ -2132,28 +2132,28 @@
         <v>71</v>
       </c>
       <c r="D38" t="n">
-        <v>62.6</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>330.9</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>708.3</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>692148</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.331</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.001</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.926</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>2050.207</v>
+        <v>2051.057</v>
       </c>
     </row>
     <row r="39">
@@ -2167,28 +2167,28 @@
         <v>72</v>
       </c>
       <c r="D39" t="n">
-        <v>15082</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>10980.3</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>201041.7</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>683767.2</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>36.628</v>
+        <v>10.248</v>
       </c>
       <c r="I39" t="n">
-        <v>27.14</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>525.119</v>
+        <v>525.564</v>
       </c>
       <c r="K39" t="n">
-        <v>1537.908</v>
+        <v>1625.714</v>
       </c>
     </row>
     <row r="40">
@@ -2202,28 +2202,28 @@
         <v>73</v>
       </c>
       <c r="D40" t="n">
-        <v>375115.7</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>41595</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>86280.9</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>224950.3</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>901.103</v>
+        <v>970.041</v>
       </c>
       <c r="I40" t="n">
-        <v>99.178</v>
+        <v>107.274</v>
       </c>
       <c r="J40" t="n">
-        <v>168.435</v>
+        <v>160.455</v>
       </c>
       <c r="K40" t="n">
-        <v>372.083</v>
+        <v>369.061</v>
       </c>
     </row>
     <row r="41">
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>967800.6</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2258,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>2660.467</v>
+        <v>2690.846</v>
       </c>
     </row>
     <row r="42">
@@ -2275,13 +2275,13 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>52.9</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>560533.7</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>1122.552</v>
+        <v>1187.237</v>
       </c>
     </row>
     <row r="43">
@@ -2307,28 +2307,28 @@
         <v>76</v>
       </c>
       <c r="D43" t="n">
-        <v>343797.9</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>83073.6</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>118623.3</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>201988.7</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>691.724</v>
+        <v>712.515</v>
       </c>
       <c r="I43" t="n">
-        <v>94.181</v>
+        <v>92.302</v>
       </c>
       <c r="J43" t="n">
-        <v>234.357</v>
+        <v>265.556</v>
       </c>
       <c r="K43" t="n">
-        <v>303.193</v>
+        <v>291.368</v>
       </c>
     </row>
     <row r="44">
@@ -2345,25 +2345,25 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>468.6</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>653.9</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>724133.5</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.749</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>1451.154</v>
+        <v>1473.681</v>
       </c>
     </row>
     <row r="45">
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1060468.3</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2398,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>642.795</v>
+        <v>696.995</v>
       </c>
     </row>
     <row r="46">
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>727231.1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>319.163</v>
+        <v>331.856</v>
       </c>
     </row>
     <row r="47">
@@ -2456,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>364897.9</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2468,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>819.231</v>
+        <v>934.155</v>
       </c>
     </row>
     <row r="48">
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>684147.6</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2503,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>507.475</v>
+        <v>574.401</v>
       </c>
     </row>
     <row r="49">
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>487896.7</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>332.524</v>
+        <v>374.947</v>
       </c>
     </row>
     <row r="50">
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>562027.3</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>573.888</v>
+        <v>577.595</v>
       </c>
     </row>
     <row r="51">
@@ -2596,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>197556.8</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>274.427</v>
+        <v>407.24</v>
       </c>
     </row>
     <row r="52">
@@ -2631,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>552552.6</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2643,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>457.918</v>
+        <v>519.284</v>
       </c>
     </row>
     <row r="53">
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>515506</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2678,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>514.107</v>
+        <v>657.016</v>
       </c>
     </row>
     <row r="54">
@@ -2701,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>65999.9</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>218.606</v>
+        <v>252.223</v>
       </c>
     </row>
     <row r="55">
@@ -2733,10 +2733,10 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>998.6</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>38958.9</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2745,10 +2745,10 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>1.924</v>
+        <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>81.271</v>
+        <v>99.972</v>
       </c>
     </row>
     <row r="56">
@@ -2765,25 +2765,25 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>45.7</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>2364.7</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>53923.9</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0.112</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>11.039</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>143.255</v>
+        <v>175.299</v>
       </c>
     </row>
     <row r="57">
@@ -2803,10 +2803,10 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>9248.7</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>10457.1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2815,10 +2815,10 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>42.265</v>
+        <v>40.632</v>
       </c>
       <c r="K57" t="n">
-        <v>26.491</v>
+        <v>9.59</v>
       </c>
     </row>
     <row r="58">
@@ -2832,28 +2832,28 @@
         <v>92</v>
       </c>
       <c r="D58" t="n">
-        <v>7543.2</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>1744.8</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>97216.4</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>324829</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>26.376</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>6.975</v>
+        <v>6.868</v>
       </c>
       <c r="J58" t="n">
-        <v>251.631</v>
+        <v>280.748</v>
       </c>
       <c r="K58" t="n">
-        <v>376.444</v>
+        <v>400.753</v>
       </c>
     </row>
     <row r="59">
@@ -2870,25 +2870,25 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>51.3</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>811.2</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>39788.3</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0.057</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>1.494</v>
+        <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>68.043</v>
+        <v>87.351</v>
       </c>
     </row>
     <row r="60">
@@ -2902,28 +2902,28 @@
         <v>94</v>
       </c>
       <c r="D60" t="n">
-        <v>7172</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>226</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>72339.8</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>90763.2</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>29.292</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0.622</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>262.096</v>
+        <v>276.439</v>
       </c>
       <c r="K60" t="n">
-        <v>246.35</v>
+        <v>257.369</v>
       </c>
     </row>
     <row r="61">
@@ -2937,28 +2937,28 @@
         <v>95</v>
       </c>
       <c r="D61" t="n">
-        <v>1520.8</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>2306.1</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>29604.1</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>462325.1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>5.39</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>5.236</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>117.42</v>
+        <v>141.724</v>
       </c>
       <c r="K61" t="n">
-        <v>525.361</v>
+        <v>542.272</v>
       </c>
     </row>
     <row r="62">
@@ -2978,10 +2978,10 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>1136.8</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>31533.8</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2990,10 +2990,10 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>3.617</v>
+        <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>83.044</v>
+        <v>70.72</v>
       </c>
     </row>
     <row r="63">
@@ -3007,28 +3007,28 @@
         <v>97</v>
       </c>
       <c r="D63" t="n">
-        <v>525.6</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>169448.6</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>318672.4</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>1.488</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>728.926</v>
+        <v>754.02</v>
       </c>
       <c r="K63" t="n">
-        <v>938.298</v>
+        <v>993.931</v>
       </c>
     </row>
     <row r="64">
@@ -3042,28 +3042,28 @@
         <v>98</v>
       </c>
       <c r="D64" t="n">
-        <v>2142.6</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>5024</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>15126.5</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>71857.4</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>8.952</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>18.558</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>87.031</v>
+        <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>327.985</v>
+        <v>459.479</v>
       </c>
     </row>
     <row r="65">
@@ -3077,28 +3077,28 @@
         <v>99</v>
       </c>
       <c r="D65" t="n">
-        <v>1070.9</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>391.8</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>69076.5</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>340739.8</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>3.929</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>260.02</v>
+        <v>165.245</v>
       </c>
       <c r="K65" t="n">
-        <v>1041.806</v>
+        <v>1093.548</v>
       </c>
     </row>
     <row r="66">
@@ -3118,10 +3118,10 @@
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>40032.9</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>213818.1</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3130,10 +3130,10 @@
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>191.91</v>
+        <v>178.809</v>
       </c>
       <c r="K66" t="n">
-        <v>897.511</v>
+        <v>912.922</v>
       </c>
     </row>
     <row r="67">
@@ -3147,28 +3147,28 @@
         <v>101</v>
       </c>
       <c r="D67" t="n">
-        <v>217260.3</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>18780.7</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>227121.3</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>71230</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>339.291</v>
+        <v>348.366</v>
       </c>
       <c r="I67" t="n">
-        <v>28.311</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>513.415</v>
+        <v>567.929</v>
       </c>
       <c r="K67" t="n">
-        <v>111.049</v>
+        <v>57.418</v>
       </c>
     </row>
     <row r="68">
@@ -3185,25 +3185,25 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>59.7</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>14804.6</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>85582.4</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0.437</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>74.053</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>381.726</v>
+        <v>341.778</v>
       </c>
     </row>
     <row r="69">
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>76932.3</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>248.969</v>
+        <v>210.893</v>
       </c>
     </row>
     <row r="70">
@@ -3252,28 +3252,28 @@
         <v>104</v>
       </c>
       <c r="D70" t="n">
-        <v>841.4</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>32967.8</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>34048.6</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>2.492</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>58.277</v>
+        <v>79.689</v>
       </c>
       <c r="K70" t="n">
-        <v>38.605</v>
+        <v>45.966</v>
       </c>
     </row>
     <row r="71">
@@ -3287,28 +3287,28 @@
         <v>105</v>
       </c>
       <c r="D71" t="n">
-        <v>56706</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>3123.1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>9200.7</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>19895.8</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>64.839</v>
+        <v>89.915</v>
       </c>
       <c r="I71" t="n">
-        <v>6.662</v>
+        <v>1.464</v>
       </c>
       <c r="J71" t="n">
-        <v>21.445</v>
+        <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>90.556</v>
+        <v>70.303</v>
       </c>
     </row>
     <row r="72">
@@ -3322,28 +3322,28 @@
         <v>106</v>
       </c>
       <c r="D72" t="n">
-        <v>2046.4</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>58.1</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>90051.1</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>360346.3</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>7.874</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>528.515</v>
+        <v>392.161</v>
       </c>
       <c r="K72" t="n">
-        <v>1468</v>
+        <v>1456.509</v>
       </c>
     </row>
     <row r="73">
@@ -3363,10 +3363,10 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>8729.6</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>183433</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3375,10 +3375,10 @@
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>41.822</v>
+        <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>680.77</v>
+        <v>686.638</v>
       </c>
     </row>
     <row r="74">
@@ -3392,28 +3392,28 @@
         <v>108</v>
       </c>
       <c r="D74" t="n">
-        <v>62.9</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>124.5</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>21725.8</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>256032.8</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0.615</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>112.946</v>
+        <v>52.628</v>
       </c>
       <c r="K74" t="n">
-        <v>1063.305</v>
+        <v>1052.391</v>
       </c>
     </row>
     <row r="75">
@@ -3427,28 +3427,28 @@
         <v>109</v>
       </c>
       <c r="D75" t="n">
-        <v>1329.1</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>19082.5</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>23108.8</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>2.712</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>42.129</v>
+        <v>41.222</v>
       </c>
       <c r="K75" t="n">
-        <v>53.473</v>
+        <v>73.387</v>
       </c>
     </row>
     <row r="76">
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>504767.9</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>923.874</v>
+        <v>949.373</v>
       </c>
     </row>
     <row r="77">
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>531403.9</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3518,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>1163.202</v>
+        <v>1191.327</v>
       </c>
     </row>
     <row r="78">
@@ -3541,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>343004.5</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>354.386</v>
+        <v>379.196</v>
       </c>
     </row>
     <row r="79">
@@ -3576,7 +3576,7 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>261385</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3588,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>631.137</v>
+        <v>696.791</v>
       </c>
     </row>
     <row r="80">
@@ -3611,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>567423.9</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3623,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>725.895</v>
+        <v>727.522</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/soil/soil_table_ethiopia.xlsx
+++ b/public/data/soil/soil_table_ethiopia.xlsx
@@ -39,25 +39,25 @@
     <t xml:space="preserve">name of zone in each province</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation below 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation below 10% of ECEC</t>
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>8379</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>5299.1</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -951,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>3481.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>13921</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>336.9</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>6827</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1082,16 +1082,16 @@
         <v>38</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>9144</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>10960.8</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>59365.4</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>126559</v>
       </c>
       <c r="H8" t="n">
         <v>43.388</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>7643.4</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>326772.2</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1231,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>301425.7</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>2643</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>12800</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>414442.5</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1298,10 +1298,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>3282.6</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>327050</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>397754.2</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>68484.5</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>558752.1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>187808.6</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>94279.8</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1505,13 +1505,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>3002.2</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>82020.6</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>52</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>11160.9</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>959</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>2039.6</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>38228.6</v>
       </c>
       <c r="H21" t="n">
         <v>11.91</v>
@@ -1572,16 +1572,16 @@
         <v>53</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>16246.3</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>22989.7</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>3652.7</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>51638.3</v>
       </c>
       <c r="H22" t="n">
         <v>70.449</v>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>20686.7</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1642,16 +1642,16 @@
         <v>56</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>187.9</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>78.3</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>13286</v>
       </c>
       <c r="H24" t="n">
         <v>2.6</v>
@@ -1677,7 +1677,7 @@
         <v>57</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1647.8</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>3054.3</v>
       </c>
       <c r="H25" t="n">
         <v>17.829</v>
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5558.3</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1756,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>20562.6</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>640741.4</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1823,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>10758</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>153546.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1855,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>7938.4</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>99572.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1893,10 +1893,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>7264.2</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>171391.6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1925,13 +1925,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>4728.1</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>32725.1</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>81981.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1957,16 +1957,16 @@
         <v>66</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>7693.3</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>9359.5</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>80896.2</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>49255.4</v>
       </c>
       <c r="H33" t="n">
         <v>26.431</v>
@@ -1992,16 +1992,16 @@
         <v>67</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>207503.3</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>6428.7</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>27178.8</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>22767.3</v>
       </c>
       <c r="H34" t="n">
         <v>1021.42</v>
@@ -2027,16 +2027,16 @@
         <v>68</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>245636.8</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>139868.3</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>51225.3</v>
       </c>
       <c r="H35" t="n">
         <v>1459.753</v>
@@ -2062,16 +2062,16 @@
         <v>69</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>20563.7</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>41826.7</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>71339.1</v>
       </c>
       <c r="H36" t="n">
         <v>81.372</v>
@@ -2103,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>11617.9</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>352227.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>274748.3</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2167,16 +2167,16 @@
         <v>72</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>5066.8</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>103286.2</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>299353.7</v>
       </c>
       <c r="H39" t="n">
         <v>10.248</v>
@@ -2202,16 +2202,16 @@
         <v>73</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>180720.2</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>17776.2</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>26351.5</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>82292.5</v>
       </c>
       <c r="H40" t="n">
         <v>970.041</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>335028.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>249816.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2307,16 +2307,16 @@
         <v>76</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>110779.7</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>15074.3</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>50105.7</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>52089.2</v>
       </c>
       <c r="H43" t="n">
         <v>712.515</v>
@@ -2351,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>308639.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>289.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>194.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>57538.3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>256.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>5463</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2596,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>217.2</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>30671.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2701,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>44047.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>23794.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2771,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>10960.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2803,10 +2803,10 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>6193</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>2003.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2835,13 +2835,13 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>236.2</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>26192.1</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>25404.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2876,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>15801.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2908,10 +2908,10 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>13610.8</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>14656.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2943,10 +2943,10 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>19217</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>43444</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2981,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>17073.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -3013,10 +3013,10 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>59232.5</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>94828.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -3045,13 +3045,13 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>2174.9</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>3543.1</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>39542.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3083,10 +3083,10 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>11897.4</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>127816.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3118,10 +3118,10 @@
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>16070.1</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>93177</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3147,16 +3147,16 @@
         <v>101</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>43087.8</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>707.4</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>53050.8</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>3193.3</v>
       </c>
       <c r="H67" t="n">
         <v>348.366</v>
@@ -3188,10 +3188,10 @@
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>2270.6</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>40753.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>26668.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3258,10 +3258,10 @@
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>9200.7</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>4271</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3287,16 +3287,16 @@
         <v>105</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>23208.2</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>707.4</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>3605.2</v>
       </c>
       <c r="H71" t="n">
         <v>89.915</v>
@@ -3328,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>17821.6</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>143840.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>126191.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3398,10 +3398,10 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>5843.8</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>77824.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3433,10 +3433,10 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>9057.4</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>9470.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>184188.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>172775.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3541,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>86601.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3576,7 +3576,7 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>86510.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3611,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>192597.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
